--- a/Fig_1/counterw4data.xlsx
+++ b/Fig_1/counterw4data.xlsx
@@ -1,40 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona\Desktop\QoE_comsnet\QoE_combination\Fig_1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6857664C-68F1-4557-AF29-703CE7E3A653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,21 +78,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -149,7 +122,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -183,7 +156,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -218,10 +190,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -394,40 +365,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1">
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1.1111111111111109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.111111111111111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.15277777777777779</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.1527777777777778</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.14583333333333329</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.1458333333333333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -435,7 +404,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -443,7 +412,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -451,15 +420,15 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.15972222222222221</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.1597222222222222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -467,7 +436,7 @@
         <v>0.2361111111111111</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -475,39 +444,39 @@
         <v>0.2013888888888889</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.4583333333333333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="1">
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.21527777777777779</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.2152777777777778</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.25694444444444448</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.2569444444444445</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="1">
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.27083333333333343</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.2708333333333334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -515,31 +484,31 @@
         <v>0.2638888888888889</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="1">
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.54166666666666674</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.5416666666666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.20833333333333329</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.2083333333333333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="1">
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.18055555555555561</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.1805555555555556</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -547,47 +516,47 @@
         <v>0.2361111111111111</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="1">
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.22916666666666671</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.2291666666666667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.72916666666666663</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.7291666666666666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="1">
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0.27083333333333343</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.2708333333333334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.39583333333333343</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.3958333333333334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="1">
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.25694444444444448</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.2569444444444445</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -595,15 +564,15 @@
         <v>0.2986111111111111</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="1">
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.61805555555555558</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.6180555555555556</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -611,47 +580,47 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="1">
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0.42361111111111122</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.4236111111111112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" s="1">
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0.39583333333333343</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.3958333333333334</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" s="1">
         <v>29</v>
       </c>
       <c r="B29">
-        <v>0.47222222222222221</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.4722222222222222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="1">
         <v>30</v>
       </c>
       <c r="B30">
-        <v>0.95833333333333326</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.9583333333333333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="1">
         <v>31</v>
       </c>
       <c r="B31">
-        <v>0.52083333333333326</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.5208333333333333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -659,7 +628,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -667,119 +636,119 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="1">
         <v>34</v>
       </c>
       <c r="B34">
-        <v>0.63194444444444442</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.6319444444444444</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="1">
         <v>35</v>
       </c>
       <c r="B35">
-        <v>1.1597222222222221</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.159722222222222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" s="1">
         <v>36</v>
       </c>
       <c r="B36">
-        <v>0.65972222222222221</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.6597222222222222</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" s="1">
         <v>37</v>
       </c>
       <c r="B37">
-        <v>0.65972222222222221</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.6597222222222222</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" s="1">
         <v>38</v>
       </c>
       <c r="B38">
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" s="1">
         <v>39</v>
       </c>
       <c r="B39">
-        <v>0.86805555555555558</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.8680555555555556</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" s="1">
         <v>40</v>
       </c>
       <c r="B40">
-        <v>2.0486111111111112</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.048611111111111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" s="1">
         <v>41</v>
       </c>
       <c r="B41">
-        <v>1.0347222222222221</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.034722222222222</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" s="1">
         <v>42</v>
       </c>
       <c r="B42">
-        <v>0.76388888888888884</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.7638888888888888</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" s="1">
         <v>43</v>
       </c>
       <c r="B43">
-        <v>0.50694444444444442</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.5069444444444444</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" s="1">
         <v>44</v>
       </c>
       <c r="B44">
-        <v>0.46527777777777768</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.4652777777777777</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" s="1">
         <v>45</v>
       </c>
       <c r="B45">
-        <v>0.97222222222222221</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.9722222222222222</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" s="1">
         <v>46</v>
       </c>
       <c r="B46">
-        <v>0.25694444444444448</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.2569444444444445</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" s="1">
         <v>47</v>
       </c>
       <c r="B47">
-        <v>0.35416666666666657</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.3541666666666666</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" s="1">
         <v>48</v>
       </c>
@@ -787,7 +756,7 @@
         <v>0.2013888888888889</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49" s="1">
         <v>49</v>
       </c>
@@ -795,23 +764,23 @@
         <v>0.1388888888888889</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50" s="1">
         <v>50</v>
       </c>
       <c r="B50">
-        <v>6.3680555555555562</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6.368055555555556</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" s="1">
         <v>51</v>
       </c>
       <c r="B51">
-        <v>0.15277777777777779</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.1527777777777778</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" s="1">
         <v>52</v>
       </c>
@@ -819,15 +788,15 @@
         <v>0.1388888888888889</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53" s="1">
         <v>53</v>
       </c>
       <c r="B53">
-        <v>0.15277777777777779</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.1527777777777778</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" s="1">
         <v>54</v>
       </c>
@@ -835,31 +804,31 @@
         <v>0.2986111111111111</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55" s="1">
         <v>55</v>
       </c>
       <c r="B55">
-        <v>0.71527777777777779</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.7152777777777778</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" s="1">
         <v>56</v>
       </c>
       <c r="B56">
-        <v>0.51388888888888895</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.513888888888889</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" s="1">
         <v>57</v>
       </c>
       <c r="B57">
-        <v>0.54166666666666674</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.5416666666666667</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" s="1">
         <v>58</v>
       </c>
@@ -867,15 +836,15 @@
         <v>1.006944444444444</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59" s="1">
         <v>59</v>
       </c>
       <c r="B59">
-        <v>0.84027777777777779</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.8402777777777778</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" s="1">
         <v>60</v>
       </c>
@@ -883,15 +852,15 @@
         <v>2.770833333333333</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2">
       <c r="A61" s="1">
         <v>61</v>
       </c>
       <c r="B61">
-        <v>1.3888888888888891</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.388888888888889</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" s="1">
         <v>62</v>
       </c>
@@ -899,15 +868,15 @@
         <v>1.395833333333333</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2">
       <c r="A63" s="1">
         <v>63</v>
       </c>
       <c r="B63">
-        <v>1.2638888888888891</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.263888888888889</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" s="1">
         <v>64</v>
       </c>
@@ -915,15 +884,15 @@
         <v>1.104166666666667</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65" s="1">
         <v>65</v>
       </c>
       <c r="B65">
-        <v>2.7013888888888888</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.701388888888889</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" s="1">
         <v>66</v>
       </c>
@@ -931,15 +900,15 @@
         <v>1.3125</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67" s="1">
         <v>67</v>
       </c>
       <c r="B67">
-        <v>1.4027777777777779</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.402777777777778</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" s="1">
         <v>68</v>
       </c>
@@ -947,7 +916,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2">
       <c r="A69" s="1">
         <v>69</v>
       </c>
@@ -955,7 +924,7 @@
         <v>1.3125</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
       <c r="A70" s="1">
         <v>70</v>
       </c>
@@ -963,7 +932,7 @@
         <v>3.548611111111112</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2">
       <c r="A71" s="1">
         <v>71</v>
       </c>
@@ -971,7 +940,7 @@
         <v>1.479166666666667</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2">
       <c r="A72" s="1">
         <v>72</v>
       </c>
@@ -979,7 +948,7 @@
         <v>1.506944444444444</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2">
       <c r="A73" s="1">
         <v>73</v>
       </c>
@@ -987,7 +956,7 @@
         <v>1.416666666666667</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2">
       <c r="A74" s="1">
         <v>74</v>
       </c>
@@ -995,15 +964,15 @@
         <v>1.430555555555556</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2">
       <c r="A75" s="1">
         <v>75</v>
       </c>
       <c r="B75">
-        <v>3.0694444444444451</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.069444444444445</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" s="1">
         <v>76</v>
       </c>
@@ -1011,7 +980,7 @@
         <v>1.381944444444444</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2">
       <c r="A77" s="1">
         <v>77</v>
       </c>
@@ -1019,7 +988,7 @@
         <v>1.319444444444444</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2">
       <c r="A78" s="1">
         <v>78</v>
       </c>
@@ -1027,7 +996,7 @@
         <v>1.256944444444444</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2">
       <c r="A79" s="1">
         <v>79</v>
       </c>
@@ -1035,15 +1004,15 @@
         <v>1.055555555555556</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2">
       <c r="A80" s="1">
         <v>80</v>
       </c>
       <c r="B80">
-        <v>3.1388888888888888</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.138888888888889</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" s="1">
         <v>81</v>
       </c>
@@ -1051,7 +1020,7 @@
         <v>1.5625</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2">
       <c r="A82" s="1">
         <v>82</v>
       </c>
@@ -1059,7 +1028,7 @@
         <v>1.375</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2">
       <c r="A83" s="1">
         <v>83</v>
       </c>
@@ -1067,15 +1036,15 @@
         <v>1.229166666666667</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2">
       <c r="A84" s="1">
         <v>84</v>
       </c>
       <c r="B84">
-        <v>1.3263888888888891</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.326388888888889</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85" s="1">
         <v>85</v>
       </c>
@@ -1083,7 +1052,7 @@
         <v>2.6875</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2">
       <c r="A86" s="1">
         <v>86</v>
       </c>
@@ -1091,7 +1060,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2">
       <c r="A87" s="1">
         <v>87</v>
       </c>
@@ -1099,15 +1068,15 @@
         <v>1.375</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2">
       <c r="A88" s="1">
         <v>88</v>
       </c>
       <c r="B88">
-        <v>1.1597222222222221</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.159722222222222</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89" s="1">
         <v>89</v>
       </c>
@@ -1115,47 +1084,47 @@
         <v>1.243055555555556</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2">
       <c r="A90" s="1">
         <v>90</v>
       </c>
       <c r="B90">
-        <v>2.4861111111111112</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.486111111111111</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" s="1">
         <v>91</v>
       </c>
       <c r="B91">
-        <v>1.2361111111111109</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.236111111111111</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92" s="1">
         <v>92</v>
       </c>
       <c r="B92">
-        <v>1.2361111111111109</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.236111111111111</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93" s="1">
         <v>93</v>
       </c>
       <c r="B93">
-        <v>1.0138888888888891</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.013888888888889</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94" s="1">
         <v>94</v>
       </c>
       <c r="B94">
-        <v>0.92361111111111116</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.9236111111111112</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95" s="1">
         <v>95</v>
       </c>
@@ -1163,50 +1132,44 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2">
       <c r="A96" s="1">
         <v>96</v>
       </c>
       <c r="B96">
-        <v>0.74305555555555558</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.7430555555555556</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97" s="1">
         <v>97</v>
       </c>
       <c r="B97">
-        <v>0.76388888888888884</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.7638888888888888</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98" s="1">
         <v>98</v>
       </c>
       <c r="B98">
-        <v>0.63888888888888895</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.638888888888889</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99" s="1">
         <v>99</v>
       </c>
       <c r="B99">
-        <v>0.59027777777777779</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.5902777777777778</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100" s="1">
         <v>100</v>
       </c>
       <c r="B100">
-        <v>4.2986111111111116</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B101">
-        <f>SUM(B1:B100)</f>
-        <v>100</v>
+        <v>4.298611111111112</v>
       </c>
     </row>
   </sheetData>
